--- a/Mapping_Table.xlsx
+++ b/Mapping_Table.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nyorgancilar\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAB5150-790B-427C-9161-D63B32C0B20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C750B0-175A-4C06-96AA-8FC3C2FBDD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27960" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3165" yWindow="3300" windowWidth="26040" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1" sheetId="35" r:id="rId1"/>
@@ -2136,7 +2131,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9EEB8C6E-F44C-4772-A415-9160437DF165}" type="CELLRANGE">
+                    <a:fld id="{95C825E1-C5FE-436A-A3DF-830F6DDB8D11}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2170,7 +2165,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{152C61EA-5002-4D26-A74D-0BE7538C7F9E}" type="CELLRANGE">
+                    <a:fld id="{FC3275FC-989A-422A-BB6C-48E2EBC53F8C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2204,7 +2199,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6DD1C504-DD76-4B34-AEB1-488485D2F8A1}" type="CELLRANGE">
+                    <a:fld id="{EC33223D-58EC-4EDE-AFBF-15B0A8823678}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2238,7 +2233,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8145186C-061A-41B4-AF29-540286291E39}" type="CELLRANGE">
+                    <a:fld id="{BC43D7F0-C86A-4EC8-8976-FE42BADE899D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2272,7 +2267,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8988F79-3C8B-45A3-AE1B-8B3BDF197077}" type="CELLRANGE">
+                    <a:fld id="{BAF7424E-3FFC-4396-A4A4-73A1553BE77D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2306,7 +2301,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57FFCEB8-B2B1-4E4E-8CE4-ECAAA151A557}" type="CELLRANGE">
+                    <a:fld id="{4430C96F-5BFE-4148-9ABC-8D78D6314ABE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2340,7 +2335,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8850E2D3-D891-49A6-8648-B2E9523CE205}" type="CELLRANGE">
+                    <a:fld id="{1C917119-8186-4542-A840-11C34D7D41B9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2374,7 +2369,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{091A6617-4AD9-45C5-8F72-C0077BC121CD}" type="CELLRANGE">
+                    <a:fld id="{5B0F74A3-9E6E-4064-9572-1EB755F9CDCA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2408,7 +2403,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A368010-B26D-43E0-8915-23DC4EE65F95}" type="CELLRANGE">
+                    <a:fld id="{39B743D6-E5B0-4CC6-93E6-AB9144D14558}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2442,7 +2437,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7805657D-B9A9-422A-A76A-33090722CC70}" type="CELLRANGE">
+                    <a:fld id="{9FACBA96-90E5-425B-BD61-809A0878846A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2476,7 +2471,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A2EB07C-F6AC-4A82-B4DA-2377B93D0AFB}" type="CELLRANGE">
+                    <a:fld id="{45B58C83-0C72-42CA-BE0E-B9618C8F8521}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2510,7 +2505,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{04A99FCC-C9D7-40D5-B035-EDEC1B216213}" type="CELLRANGE">
+                    <a:fld id="{23E9F530-6C25-4654-8993-9EF1A1565AD4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2544,7 +2539,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EC16E898-5B7E-4291-A94C-ACDE9DAC63B1}" type="CELLRANGE">
+                    <a:fld id="{2DA06F8B-8604-4042-A7B4-FC80CC45DC8C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2578,7 +2573,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{75A322E9-58BE-449E-A0E5-A62B4068CBEC}" type="CELLRANGE">
+                    <a:fld id="{2E21E913-886B-44D8-B323-E49137913D60}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2612,7 +2607,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DBB41A06-0FE4-4BC7-A32C-175C97FD9D65}" type="CELLRANGE">
+                    <a:fld id="{B20001A9-82D4-4A71-AE5D-9CD98D7C3C5E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6403,7 +6398,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nilay YORGANCILAR" refreshedDate="45624.800527546293" createdVersion="8" refreshedVersion="7" minRefreshableVersion="3" recordCount="1123" xr:uid="{DB852DC5-F496-9A46-A427-7C3069DBC7C4}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Author" refreshedDate="45624.800527546293" createdVersion="8" refreshedVersion="7" minRefreshableVersion="3" recordCount="1123" xr:uid="{DB852DC5-F496-9A46-A427-7C3069DBC7C4}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:K1048576" sheet="Mapping"/>
   </cacheSource>
@@ -30096,7 +30091,8 @@
     <mergeCell ref="E2:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -47461,7 +47457,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD564E55-D42E-4380-A836-1F7BA85D0F3F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46D36D54-0D5C-4493-A287-7B7DBB8AE574}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
